--- a/Running projects/BAHL 12 floor Centrepoint Karachi/BOQ of ACMV + Fire Works.xlsx
+++ b/Running projects/BAHL 12 floor Centrepoint Karachi/BOQ of ACMV + Fire Works.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rehan Aslam\Desktop\BAHL 12 floor Centrepoint Karachi\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Pioneer\Running projects\BAHL 12 floor Centrepoint Karachi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85DA9BEC-1BD3-4420-8596-C5D0A1216CC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{722279E7-A2E1-4402-9D83-6C1C0492923F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -670,7 +670,7 @@
     <t>12th Floor Centerpoint Karachi</t>
   </si>
   <si>
-    <t>M/S SEM Engineers</t>
+    <t>M/S Aisha Interiors</t>
   </si>
 </sst>
 </file>
@@ -1420,150 +1420,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" indent="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" indent="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" indent="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" indent="2" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" indent="2" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" indent="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" indent="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" indent="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" indent="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" indent="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" indent="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" indent="3" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" indent="3" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" indent="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" indent="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" indent="3" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" indent="3" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="3" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="3" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" indent="3" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" indent="2" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1573,19 +1429,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1696,7 +1546,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1711,7 +1561,7 @@
     <xf numFmtId="1" fontId="2" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="1" fontId="2" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1726,7 +1576,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1766,62 +1616,212 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="31" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="32" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="33" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="34" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="14" fillId="0" borderId="35" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="36" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="15" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="14" fillId="0" borderId="15" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="14" fillId="0" borderId="37" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="15" fillId="0" borderId="33" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="9" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="9" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="31" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="32" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="33" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="34" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="14" fillId="0" borderId="35" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="36" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="15" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="14" fillId="0" borderId="15" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="14" fillId="0" borderId="37" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="15" fillId="0" borderId="33" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="9" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="9" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" indent="2" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" indent="2" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" indent="2" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="3" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="3" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="3" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="3" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="3" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="3" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="3" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" indent="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" indent="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" indent="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" indent="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" indent="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" indent="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" indent="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -2232,193 +2232,193 @@
   <dimension ref="A4:E27"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="7.33203125" style="163" customWidth="1"/>
-    <col min="2" max="2" width="36.6640625" style="163" customWidth="1"/>
-    <col min="3" max="3" width="19.83203125" style="163" customWidth="1"/>
-    <col min="4" max="4" width="18.6640625" style="163" customWidth="1"/>
-    <col min="5" max="5" width="21.6640625" style="163" customWidth="1"/>
-    <col min="6" max="16384" width="9.33203125" style="164"/>
+    <col min="1" max="1" width="7.33203125" style="113" customWidth="1"/>
+    <col min="2" max="2" width="36.6640625" style="113" customWidth="1"/>
+    <col min="3" max="3" width="19.83203125" style="113" customWidth="1"/>
+    <col min="4" max="4" width="18.6640625" style="113" customWidth="1"/>
+    <col min="5" max="5" width="21.6640625" style="113" customWidth="1"/>
+    <col min="6" max="16384" width="9.33203125" style="114"/>
   </cols>
   <sheetData>
     <row r="4" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="5" spans="1:5" s="166" customFormat="1" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A5" s="165"/>
-      <c r="E5" s="167" t="s">
+    <row r="5" spans="1:5" s="116" customFormat="1" ht="18.75" x14ac:dyDescent="0.2">
+      <c r="A5" s="115"/>
+      <c r="E5" s="117" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="6" spans="1:5" s="166" customFormat="1" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A6" s="165"/>
-      <c r="E6" s="167"/>
-    </row>
-    <row r="7" spans="1:5" s="166" customFormat="1" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A7" s="165"/>
-      <c r="E7" s="167"/>
-    </row>
-    <row r="8" spans="1:5" s="166" customFormat="1" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A8" s="165"/>
-      <c r="E8" s="167"/>
-    </row>
-    <row r="9" spans="1:5" s="166" customFormat="1" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A9" s="165" t="s">
+    <row r="6" spans="1:5" s="116" customFormat="1" ht="18.75" x14ac:dyDescent="0.2">
+      <c r="A6" s="115"/>
+      <c r="E6" s="117"/>
+    </row>
+    <row r="7" spans="1:5" s="116" customFormat="1" ht="18.75" x14ac:dyDescent="0.2">
+      <c r="A7" s="115"/>
+      <c r="E7" s="117"/>
+    </row>
+    <row r="8" spans="1:5" s="116" customFormat="1" ht="18.75" x14ac:dyDescent="0.2">
+      <c r="A8" s="115"/>
+      <c r="E8" s="117"/>
+    </row>
+    <row r="9" spans="1:5" s="116" customFormat="1" ht="18.75" x14ac:dyDescent="0.2">
+      <c r="A9" s="115" t="s">
         <v>155</v>
       </c>
-      <c r="E9" s="167"/>
-    </row>
-    <row r="10" spans="1:5" s="166" customFormat="1" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A10" s="165"/>
-      <c r="E10" s="167"/>
-    </row>
-    <row r="11" spans="1:5" s="166" customFormat="1" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A11" s="165"/>
-      <c r="E11" s="167"/>
-    </row>
-    <row r="12" spans="1:5" s="166" customFormat="1" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A12" s="168" t="s">
+      <c r="E9" s="117"/>
+    </row>
+    <row r="10" spans="1:5" s="116" customFormat="1" ht="18.75" x14ac:dyDescent="0.2">
+      <c r="A10" s="115"/>
+      <c r="E10" s="117"/>
+    </row>
+    <row r="11" spans="1:5" s="116" customFormat="1" ht="18.75" x14ac:dyDescent="0.2">
+      <c r="A11" s="115"/>
+      <c r="E11" s="117"/>
+    </row>
+    <row r="12" spans="1:5" s="116" customFormat="1" ht="18.75" x14ac:dyDescent="0.2">
+      <c r="A12" s="118" t="s">
         <v>147</v>
       </c>
-      <c r="E12" s="169">
+      <c r="E12" s="119">
         <v>45274</v>
       </c>
     </row>
-    <row r="13" spans="1:5" s="166" customFormat="1" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A13" s="170" t="s">
+    <row r="13" spans="1:5" s="116" customFormat="1" ht="18.75" x14ac:dyDescent="0.2">
+      <c r="A13" s="138" t="s">
         <v>154</v>
       </c>
-      <c r="B13" s="170"/>
-      <c r="C13" s="171"/>
-      <c r="D13" s="171"/>
-      <c r="E13" s="172"/>
-    </row>
-    <row r="14" spans="1:5" s="166" customFormat="1" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A14" s="173"/>
-      <c r="E14" s="172"/>
-    </row>
-    <row r="15" spans="1:5" s="166" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A15" s="174" t="s">
+      <c r="B13" s="138"/>
+      <c r="C13" s="120"/>
+      <c r="D13" s="120"/>
+      <c r="E13" s="121"/>
+    </row>
+    <row r="14" spans="1:5" s="116" customFormat="1" ht="18.75" x14ac:dyDescent="0.2">
+      <c r="A14" s="122"/>
+      <c r="E14" s="121"/>
+    </row>
+    <row r="15" spans="1:5" s="116" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A15" s="139" t="s">
         <v>148</v>
       </c>
-      <c r="B15" s="174"/>
-      <c r="C15" s="174"/>
-      <c r="D15" s="174"/>
-      <c r="E15" s="174"/>
-    </row>
-    <row r="16" spans="1:5" s="166" customFormat="1" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="175"/>
-      <c r="B16" s="175"/>
-      <c r="C16" s="175"/>
-      <c r="D16" s="175"/>
-      <c r="E16" s="175"/>
+      <c r="B15" s="139"/>
+      <c r="C15" s="139"/>
+      <c r="D15" s="139"/>
+      <c r="E15" s="139"/>
+    </row>
+    <row r="16" spans="1:5" s="116" customFormat="1" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="123"/>
+      <c r="B16" s="123"/>
+      <c r="C16" s="123"/>
+      <c r="D16" s="123"/>
+      <c r="E16" s="123"/>
     </row>
     <row r="17" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="176" t="s">
+      <c r="A17" s="124" t="s">
         <v>149</v>
       </c>
-      <c r="B17" s="177" t="s">
+      <c r="B17" s="125" t="s">
         <v>10</v>
       </c>
-      <c r="C17" s="177" t="s">
+      <c r="C17" s="125" t="s">
         <v>150</v>
       </c>
-      <c r="D17" s="177" t="s">
+      <c r="D17" s="125" t="s">
         <v>7</v>
       </c>
-      <c r="E17" s="178" t="s">
+      <c r="E17" s="126" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A18" s="179"/>
-      <c r="B18" s="180"/>
-      <c r="C18" s="180"/>
-      <c r="D18" s="180"/>
-      <c r="E18" s="181"/>
+      <c r="A18" s="127"/>
+      <c r="B18" s="128"/>
+      <c r="C18" s="128"/>
+      <c r="D18" s="128"/>
+      <c r="E18" s="129"/>
     </row>
     <row r="19" spans="1:5" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="182">
+      <c r="A19" s="130">
         <v>1</v>
       </c>
-      <c r="B19" s="183" t="s">
+      <c r="B19" s="131" t="s">
         <v>152</v>
       </c>
-      <c r="C19" s="184">
+      <c r="C19" s="132">
         <f>HVAC!G90</f>
         <v>20134650</v>
       </c>
-      <c r="D19" s="184">
+      <c r="D19" s="132">
         <f>HVAC!I90</f>
         <v>2117550</v>
       </c>
-      <c r="E19" s="185">
+      <c r="E19" s="133">
         <f>D19+C19</f>
         <v>22252200</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="182">
+      <c r="A20" s="130">
         <v>2</v>
       </c>
-      <c r="B20" s="183" t="s">
+      <c r="B20" s="131" t="s">
         <v>153</v>
       </c>
-      <c r="C20" s="184">
+      <c r="C20" s="132">
         <f>Fire!G52</f>
-        <v>3676680</v>
-      </c>
-      <c r="D20" s="184">
+        <v>3496680</v>
+      </c>
+      <c r="D20" s="132">
         <f>Fire!I52</f>
         <v>444500</v>
       </c>
-      <c r="E20" s="185">
+      <c r="E20" s="133">
         <f>D20+C20</f>
-        <v>4121180</v>
+        <v>3941180</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="179"/>
-      <c r="B21" s="180"/>
-      <c r="C21" s="180"/>
-      <c r="D21" s="180"/>
-      <c r="E21" s="181"/>
+      <c r="A21" s="127"/>
+      <c r="B21" s="128"/>
+      <c r="C21" s="128"/>
+      <c r="D21" s="128"/>
+      <c r="E21" s="129"/>
     </row>
     <row r="22" spans="1:5" ht="21.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="176"/>
-      <c r="B22" s="177" t="s">
+      <c r="A22" s="124"/>
+      <c r="B22" s="125" t="s">
         <v>151</v>
       </c>
-      <c r="C22" s="186">
+      <c r="C22" s="134">
         <f>SUM(C19:C21)</f>
-        <v>23811330</v>
-      </c>
-      <c r="D22" s="186">
+        <v>23631330</v>
+      </c>
+      <c r="D22" s="134">
         <f>SUM(D19:D21)</f>
         <v>2562050</v>
       </c>
-      <c r="E22" s="186">
+      <c r="E22" s="134">
         <f>SUM(E19:E21)</f>
-        <v>26373380</v>
+        <v>26193380</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="E23" s="187"/>
+      <c r="E23" s="135"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="E24" s="188"/>
+      <c r="E24" s="136"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="E25" s="189"/>
+      <c r="E25" s="137"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="D26" s="189"/>
-      <c r="E26" s="188"/>
+      <c r="D26" s="137"/>
+      <c r="E26" s="136"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="E27" s="189"/>
+      <c r="E27" s="137"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -2440,7 +2440,7 @@
   <dimension ref="A1:L94"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+      <selection activeCell="A32" sqref="A32:B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2459,39 +2459,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="32" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="95" t="s">
+      <c r="A1" s="147" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="95"/>
-      <c r="C1" s="95"/>
-      <c r="D1" s="95"/>
-      <c r="E1" s="95"/>
-      <c r="F1" s="95"/>
-      <c r="G1" s="95"/>
-      <c r="H1" s="95"/>
-      <c r="I1" s="95"/>
-      <c r="J1" s="95"/>
+      <c r="B1" s="147"/>
+      <c r="C1" s="147"/>
+      <c r="D1" s="147"/>
+      <c r="E1" s="147"/>
+      <c r="F1" s="147"/>
+      <c r="G1" s="147"/>
+      <c r="H1" s="147"/>
+      <c r="I1" s="147"/>
+      <c r="J1" s="147"/>
     </row>
     <row r="2" spans="1:10" s="32" customFormat="1" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="96" t="s">
+      <c r="A2" s="148" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="96"/>
-      <c r="C2" s="96"/>
-      <c r="D2" s="96"/>
-      <c r="E2" s="96"/>
-      <c r="F2" s="96"/>
-      <c r="G2" s="96"/>
-      <c r="H2" s="96"/>
-      <c r="I2" s="96"/>
-      <c r="J2" s="96"/>
+      <c r="B2" s="148"/>
+      <c r="C2" s="148"/>
+      <c r="D2" s="148"/>
+      <c r="E2" s="148"/>
+      <c r="F2" s="148"/>
+      <c r="G2" s="148"/>
+      <c r="H2" s="148"/>
+      <c r="I2" s="148"/>
+      <c r="J2" s="148"/>
     </row>
     <row r="3" spans="1:10" s="32" customFormat="1" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="95" t="s">
+      <c r="A3" s="147" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="95"/>
-      <c r="C3" s="95"/>
+      <c r="B3" s="147"/>
+      <c r="C3" s="147"/>
       <c r="D3" s="33"/>
       <c r="E3" s="33"/>
       <c r="F3" s="34"/>
@@ -2503,44 +2503,44 @@
       </c>
     </row>
     <row r="4" spans="1:10" s="32" customFormat="1" ht="23.85" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="96" t="s">
+      <c r="A4" s="148" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="96"/>
-      <c r="C4" s="96"/>
+      <c r="B4" s="148"/>
+      <c r="C4" s="148"/>
       <c r="D4" s="33"/>
       <c r="E4" s="33"/>
       <c r="F4" s="36"/>
       <c r="G4" s="36"/>
       <c r="H4" s="36"/>
-      <c r="I4" s="57" t="s">
+      <c r="I4" s="178" t="s">
         <v>5</v>
       </c>
-      <c r="J4" s="57"/>
+      <c r="J4" s="178"/>
     </row>
     <row r="5" spans="1:10" s="1" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="97"/>
-      <c r="B5" s="97"/>
-      <c r="C5" s="97"/>
-      <c r="D5" s="97"/>
-      <c r="E5" s="98"/>
-      <c r="F5" s="99" t="s">
+      <c r="A5" s="149"/>
+      <c r="B5" s="149"/>
+      <c r="C5" s="149"/>
+      <c r="D5" s="149"/>
+      <c r="E5" s="150"/>
+      <c r="F5" s="151" t="s">
         <v>6</v>
       </c>
-      <c r="G5" s="100"/>
-      <c r="H5" s="99" t="s">
+      <c r="G5" s="152"/>
+      <c r="H5" s="151" t="s">
         <v>7</v>
       </c>
-      <c r="I5" s="100"/>
+      <c r="I5" s="152"/>
       <c r="J5" s="37" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:10" s="1" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="99" t="s">
+      <c r="A6" s="151" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="100"/>
+      <c r="B6" s="152"/>
       <c r="C6" s="37" t="s">
         <v>10</v>
       </c>
@@ -2567,8 +2567,8 @@
       </c>
     </row>
     <row r="7" spans="1:10" ht="51.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="101"/>
-      <c r="B7" s="102"/>
+      <c r="A7" s="153"/>
+      <c r="B7" s="154"/>
       <c r="C7" s="4" t="s">
         <v>15</v>
       </c>
@@ -2581,10 +2581,10 @@
       <c r="J7" s="7"/>
     </row>
     <row r="8" spans="1:10" ht="200.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="83">
+      <c r="A8" s="142">
         <v>1</v>
       </c>
-      <c r="B8" s="84"/>
+      <c r="B8" s="143"/>
       <c r="C8" s="17" t="s">
         <v>81</v>
       </c>
@@ -2597,8 +2597,8 @@
       <c r="J8" s="11"/>
     </row>
     <row r="9" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="77"/>
-      <c r="B9" s="78"/>
+      <c r="A9" s="140"/>
+      <c r="B9" s="141"/>
       <c r="C9" s="38" t="s">
         <v>16</v>
       </c>
@@ -2628,10 +2628,10 @@
       </c>
     </row>
     <row r="10" spans="1:10" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="77">
+      <c r="A10" s="140">
         <v>1.2</v>
       </c>
-      <c r="B10" s="78"/>
+      <c r="B10" s="141"/>
       <c r="C10" s="38" t="s">
         <v>18</v>
       </c>
@@ -2661,10 +2661,10 @@
       </c>
     </row>
     <row r="11" spans="1:10" ht="47.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="83">
+      <c r="A11" s="142">
         <v>2</v>
       </c>
-      <c r="B11" s="84"/>
+      <c r="B11" s="143"/>
       <c r="C11" s="18" t="s">
         <v>20</v>
       </c>
@@ -2677,10 +2677,10 @@
       <c r="J11" s="11"/>
     </row>
     <row r="12" spans="1:10" ht="19.350000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="77">
+      <c r="A12" s="140">
         <v>2.1</v>
       </c>
-      <c r="B12" s="94"/>
+      <c r="B12" s="144"/>
       <c r="C12" s="18" t="s">
         <v>21</v>
       </c>
@@ -2693,10 +2693,10 @@
       <c r="J12" s="11"/>
     </row>
     <row r="13" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="72" t="s">
+      <c r="A13" s="145" t="s">
         <v>22</v>
       </c>
-      <c r="B13" s="73"/>
+      <c r="B13" s="146"/>
       <c r="C13" s="38" t="s">
         <v>23</v>
       </c>
@@ -2726,10 +2726,10 @@
       </c>
     </row>
     <row r="14" spans="1:10" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="74" t="s">
+      <c r="A14" s="155" t="s">
         <v>24</v>
       </c>
-      <c r="B14" s="75"/>
+      <c r="B14" s="156"/>
       <c r="C14" s="38" t="s">
         <v>25</v>
       </c>
@@ -2759,10 +2759,10 @@
       </c>
     </row>
     <row r="15" spans="1:10" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="77">
+      <c r="A15" s="140">
         <v>2.2000000000000002</v>
       </c>
-      <c r="B15" s="78"/>
+      <c r="B15" s="141"/>
       <c r="C15" s="44" t="s">
         <v>26</v>
       </c>
@@ -2775,10 +2775,10 @@
       <c r="J15" s="53"/>
     </row>
     <row r="16" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="72" t="s">
+      <c r="A16" s="145" t="s">
         <v>22</v>
       </c>
-      <c r="B16" s="73"/>
+      <c r="B16" s="146"/>
       <c r="C16" s="38" t="s">
         <v>23</v>
       </c>
@@ -2808,10 +2808,10 @@
       </c>
     </row>
     <row r="17" spans="1:10" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="72" t="s">
+      <c r="A17" s="145" t="s">
         <v>24</v>
       </c>
-      <c r="B17" s="73"/>
+      <c r="B17" s="146"/>
       <c r="C17" s="38" t="s">
         <v>25</v>
       </c>
@@ -2841,10 +2841,10 @@
       </c>
     </row>
     <row r="18" spans="1:10" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="77">
+      <c r="A18" s="140">
         <v>2.2999999999999998</v>
       </c>
-      <c r="B18" s="94"/>
+      <c r="B18" s="144"/>
       <c r="C18" s="18" t="s">
         <v>27</v>
       </c>
@@ -2857,10 +2857,10 @@
       <c r="J18" s="11"/>
     </row>
     <row r="19" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="72" t="s">
+      <c r="A19" s="145" t="s">
         <v>22</v>
       </c>
-      <c r="B19" s="73"/>
+      <c r="B19" s="146"/>
       <c r="C19" s="38" t="s">
         <v>23</v>
       </c>
@@ -2890,10 +2890,10 @@
       </c>
     </row>
     <row r="20" spans="1:10" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="72" t="s">
+      <c r="A20" s="145" t="s">
         <v>24</v>
       </c>
-      <c r="B20" s="73"/>
+      <c r="B20" s="146"/>
       <c r="C20" s="38" t="s">
         <v>25</v>
       </c>
@@ -2923,10 +2923,10 @@
       </c>
     </row>
     <row r="21" spans="1:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="85">
+      <c r="A21" s="157">
         <v>2.4</v>
       </c>
-      <c r="B21" s="93"/>
+      <c r="B21" s="159"/>
       <c r="C21" s="20" t="s">
         <v>82</v>
       </c>
@@ -2956,10 +2956,10 @@
       </c>
     </row>
     <row r="22" spans="1:10" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="85">
+      <c r="A22" s="157">
         <v>2.5</v>
       </c>
-      <c r="B22" s="93"/>
+      <c r="B22" s="159"/>
       <c r="C22" s="22" t="s">
         <v>83</v>
       </c>
@@ -2989,10 +2989,10 @@
       </c>
     </row>
     <row r="23" spans="1:10" ht="30" x14ac:dyDescent="0.2">
-      <c r="A23" s="85">
+      <c r="A23" s="157">
         <v>2.6</v>
       </c>
-      <c r="B23" s="93"/>
+      <c r="B23" s="159"/>
       <c r="C23" s="17" t="s">
         <v>28</v>
       </c>
@@ -3005,10 +3005,10 @@
       <c r="J23" s="7"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A24" s="72" t="s">
+      <c r="A24" s="145" t="s">
         <v>22</v>
       </c>
-      <c r="B24" s="73"/>
+      <c r="B24" s="146"/>
       <c r="C24" s="38" t="s">
         <v>23</v>
       </c>
@@ -3038,10 +3038,10 @@
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A25" s="72" t="s">
+      <c r="A25" s="145" t="s">
         <v>24</v>
       </c>
-      <c r="B25" s="73"/>
+      <c r="B25" s="146"/>
       <c r="C25" s="38" t="s">
         <v>29</v>
       </c>
@@ -3071,10 +3071,10 @@
       </c>
     </row>
     <row r="26" spans="1:10" ht="45" x14ac:dyDescent="0.2">
-      <c r="A26" s="89">
+      <c r="A26" s="160">
         <v>2.7</v>
       </c>
-      <c r="B26" s="90"/>
+      <c r="B26" s="161"/>
       <c r="C26" s="43" t="s">
         <v>84</v>
       </c>
@@ -3104,10 +3104,10 @@
       </c>
     </row>
     <row r="27" spans="1:10" ht="60" x14ac:dyDescent="0.2">
-      <c r="A27" s="91">
+      <c r="A27" s="162">
         <v>2.8</v>
       </c>
-      <c r="B27" s="92"/>
+      <c r="B27" s="163"/>
       <c r="C27" s="54" t="s">
         <v>85</v>
       </c>
@@ -3137,10 +3137,10 @@
       </c>
     </row>
     <row r="28" spans="1:10" ht="45" x14ac:dyDescent="0.2">
-      <c r="A28" s="85">
+      <c r="A28" s="157">
         <v>2.9</v>
       </c>
-      <c r="B28" s="86"/>
+      <c r="B28" s="158"/>
       <c r="C28" s="43" t="s">
         <v>86</v>
       </c>
@@ -3170,10 +3170,10 @@
       </c>
     </row>
     <row r="29" spans="1:10" ht="150" x14ac:dyDescent="0.2">
-      <c r="A29" s="83">
+      <c r="A29" s="142">
         <v>3</v>
       </c>
-      <c r="B29" s="84"/>
+      <c r="B29" s="143"/>
       <c r="C29" s="23" t="s">
         <v>87</v>
       </c>
@@ -3186,10 +3186,10 @@
       <c r="J29" s="11"/>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A30" s="85">
+      <c r="A30" s="157">
         <v>3.1</v>
       </c>
-      <c r="B30" s="86"/>
+      <c r="B30" s="158"/>
       <c r="C30" s="38" t="s">
         <v>23</v>
       </c>
@@ -3219,10 +3219,10 @@
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A31" s="85">
+      <c r="A31" s="157">
         <v>3.2</v>
       </c>
-      <c r="B31" s="86"/>
+      <c r="B31" s="158"/>
       <c r="C31" s="38" t="s">
         <v>32</v>
       </c>
@@ -3252,10 +3252,10 @@
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A32" s="85">
+      <c r="A32" s="157">
         <v>3.3</v>
       </c>
-      <c r="B32" s="86"/>
+      <c r="B32" s="158"/>
       <c r="C32" s="38" t="s">
         <v>29</v>
       </c>
@@ -3285,10 +3285,10 @@
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A33" s="85">
+      <c r="A33" s="157">
         <v>3.4</v>
       </c>
-      <c r="B33" s="86"/>
+      <c r="B33" s="158"/>
       <c r="C33" s="38" t="s">
         <v>25</v>
       </c>
@@ -3318,10 +3318,10 @@
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A34" s="89">
+      <c r="A34" s="160">
         <v>3.5</v>
       </c>
-      <c r="B34" s="90"/>
+      <c r="B34" s="161"/>
       <c r="C34" s="38" t="s">
         <v>33</v>
       </c>
@@ -3351,10 +3351,10 @@
       </c>
     </row>
     <row r="35" spans="1:10" ht="105" x14ac:dyDescent="0.2">
-      <c r="A35" s="83">
+      <c r="A35" s="142">
         <v>4</v>
       </c>
-      <c r="B35" s="84"/>
+      <c r="B35" s="143"/>
       <c r="C35" s="18" t="s">
         <v>34</v>
       </c>
@@ -3367,10 +3367,10 @@
       <c r="J35" s="11"/>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A36" s="85">
+      <c r="A36" s="157">
         <v>4.0999999999999996</v>
       </c>
-      <c r="B36" s="86"/>
+      <c r="B36" s="158"/>
       <c r="C36" s="38" t="s">
         <v>23</v>
       </c>
@@ -3400,10 +3400,10 @@
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A37" s="85">
+      <c r="A37" s="157">
         <v>4.2</v>
       </c>
-      <c r="B37" s="86"/>
+      <c r="B37" s="158"/>
       <c r="C37" s="38" t="s">
         <v>32</v>
       </c>
@@ -3433,10 +3433,10 @@
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A38" s="85">
+      <c r="A38" s="157">
         <v>4.3</v>
       </c>
-      <c r="B38" s="86"/>
+      <c r="B38" s="158"/>
       <c r="C38" s="38" t="s">
         <v>29</v>
       </c>
@@ -3466,10 +3466,10 @@
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A39" s="85">
+      <c r="A39" s="157">
         <v>4.4000000000000004</v>
       </c>
-      <c r="B39" s="86"/>
+      <c r="B39" s="158"/>
       <c r="C39" s="38" t="s">
         <v>25</v>
       </c>
@@ -3499,10 +3499,10 @@
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A40" s="85">
+      <c r="A40" s="157">
         <v>4.5</v>
       </c>
-      <c r="B40" s="86"/>
+      <c r="B40" s="158"/>
       <c r="C40" s="38" t="s">
         <v>35</v>
       </c>
@@ -3532,10 +3532,10 @@
       </c>
     </row>
     <row r="41" spans="1:10" ht="105" x14ac:dyDescent="0.2">
-      <c r="A41" s="83">
+      <c r="A41" s="142">
         <v>5</v>
       </c>
-      <c r="B41" s="84"/>
+      <c r="B41" s="143"/>
       <c r="C41" s="18" t="s">
         <v>36</v>
       </c>
@@ -3548,10 +3548,10 @@
       <c r="J41" s="11"/>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A42" s="85">
+      <c r="A42" s="157">
         <v>5.0999999999999996</v>
       </c>
-      <c r="B42" s="86"/>
+      <c r="B42" s="158"/>
       <c r="C42" s="38" t="s">
         <v>23</v>
       </c>
@@ -3581,10 +3581,10 @@
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A43" s="89">
+      <c r="A43" s="160">
         <v>5.2</v>
       </c>
-      <c r="B43" s="90"/>
+      <c r="B43" s="161"/>
       <c r="C43" s="38" t="s">
         <v>32</v>
       </c>
@@ -3614,10 +3614,10 @@
       </c>
     </row>
     <row r="44" spans="1:10" ht="75" x14ac:dyDescent="0.2">
-      <c r="A44" s="83">
+      <c r="A44" s="142">
         <v>6</v>
       </c>
-      <c r="B44" s="84"/>
+      <c r="B44" s="143"/>
       <c r="C44" s="18" t="s">
         <v>37</v>
       </c>
@@ -3630,10 +3630,10 @@
       <c r="J44" s="11"/>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A45" s="85">
+      <c r="A45" s="157">
         <v>6.1</v>
       </c>
-      <c r="B45" s="86"/>
+      <c r="B45" s="158"/>
       <c r="C45" s="38" t="s">
         <v>38</v>
       </c>
@@ -3663,10 +3663,10 @@
       </c>
     </row>
     <row r="46" spans="1:10" ht="144" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="83">
+      <c r="A46" s="142">
         <v>7</v>
       </c>
-      <c r="B46" s="84"/>
+      <c r="B46" s="143"/>
       <c r="C46" s="18" t="s">
         <v>94</v>
       </c>
@@ -3679,10 +3679,10 @@
       <c r="J46" s="11"/>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A47" s="85">
+      <c r="A47" s="157">
         <v>7.1</v>
       </c>
-      <c r="B47" s="86"/>
+      <c r="B47" s="158"/>
       <c r="C47" s="38" t="s">
         <v>39</v>
       </c>
@@ -3712,10 +3712,10 @@
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A48" s="85">
+      <c r="A48" s="157">
         <v>7.2</v>
       </c>
-      <c r="B48" s="86"/>
+      <c r="B48" s="158"/>
       <c r="C48" s="38" t="s">
         <v>40</v>
       </c>
@@ -3745,10 +3745,10 @@
       </c>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A49" s="85">
+      <c r="A49" s="157">
         <v>7.3</v>
       </c>
-      <c r="B49" s="86"/>
+      <c r="B49" s="158"/>
       <c r="C49" s="38" t="s">
         <v>41</v>
       </c>
@@ -3778,10 +3778,10 @@
       </c>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A50" s="85">
+      <c r="A50" s="157">
         <v>7.4</v>
       </c>
-      <c r="B50" s="86"/>
+      <c r="B50" s="158"/>
       <c r="C50" s="38" t="s">
         <v>42</v>
       </c>
@@ -3811,10 +3811,10 @@
       </c>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A51" s="85">
+      <c r="A51" s="157">
         <v>7.5</v>
       </c>
-      <c r="B51" s="86"/>
+      <c r="B51" s="158"/>
       <c r="C51" s="38" t="s">
         <v>43</v>
       </c>
@@ -3844,10 +3844,10 @@
       </c>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A52" s="77">
+      <c r="A52" s="140">
         <v>7.6</v>
       </c>
-      <c r="B52" s="78"/>
+      <c r="B52" s="141"/>
       <c r="C52" s="38" t="s">
         <v>44</v>
       </c>
@@ -3877,10 +3877,10 @@
       </c>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A53" s="77">
+      <c r="A53" s="140">
         <v>7.7</v>
       </c>
-      <c r="B53" s="78"/>
+      <c r="B53" s="141"/>
       <c r="C53" s="38" t="s">
         <v>45</v>
       </c>
@@ -3910,10 +3910,10 @@
       </c>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A54" s="77">
+      <c r="A54" s="140">
         <v>7.8</v>
       </c>
-      <c r="B54" s="78"/>
+      <c r="B54" s="141"/>
       <c r="C54" s="38" t="s">
         <v>46</v>
       </c>
@@ -3943,10 +3943,10 @@
       </c>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A55" s="77">
+      <c r="A55" s="140">
         <v>7.9</v>
       </c>
-      <c r="B55" s="78"/>
+      <c r="B55" s="141"/>
       <c r="C55" s="38" t="s">
         <v>47</v>
       </c>
@@ -3976,10 +3976,10 @@
       </c>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A56" s="87">
+      <c r="A56" s="164">
         <v>7.1</v>
       </c>
-      <c r="B56" s="88"/>
+      <c r="B56" s="165"/>
       <c r="C56" s="38" t="s">
         <v>48</v>
       </c>
@@ -4009,10 +4009,10 @@
       </c>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A57" s="81">
+      <c r="A57" s="169">
         <v>7.11</v>
       </c>
-      <c r="B57" s="82"/>
+      <c r="B57" s="170"/>
       <c r="C57" s="38" t="s">
         <v>49</v>
       </c>
@@ -4042,10 +4042,10 @@
       </c>
     </row>
     <row r="58" spans="1:12" ht="75" x14ac:dyDescent="0.2">
-      <c r="A58" s="83">
+      <c r="A58" s="142">
         <v>8</v>
       </c>
-      <c r="B58" s="84"/>
+      <c r="B58" s="143"/>
       <c r="C58" s="18" t="s">
         <v>50</v>
       </c>
@@ -4058,10 +4058,10 @@
       <c r="J58" s="11"/>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A59" s="77">
+      <c r="A59" s="140">
         <v>8.1</v>
       </c>
-      <c r="B59" s="78"/>
+      <c r="B59" s="141"/>
       <c r="C59" s="38" t="s">
         <v>51</v>
       </c>
@@ -4098,10 +4098,10 @@
       </c>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A60" s="77">
+      <c r="A60" s="140">
         <v>8.1999999999999993</v>
       </c>
-      <c r="B60" s="78"/>
+      <c r="B60" s="141"/>
       <c r="C60" s="38" t="s">
         <v>52</v>
       </c>
@@ -4138,10 +4138,10 @@
       </c>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A61" s="77">
+      <c r="A61" s="140">
         <v>8.3000000000000007</v>
       </c>
-      <c r="B61" s="78"/>
+      <c r="B61" s="141"/>
       <c r="C61" s="38" t="s">
         <v>53</v>
       </c>
@@ -4178,10 +4178,10 @@
       </c>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A62" s="77">
+      <c r="A62" s="140">
         <v>8.4</v>
       </c>
-      <c r="B62" s="78"/>
+      <c r="B62" s="141"/>
       <c r="C62" s="38" t="s">
         <v>54</v>
       </c>
@@ -4218,10 +4218,10 @@
       </c>
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A63" s="77">
+      <c r="A63" s="140">
         <v>8.5</v>
       </c>
-      <c r="B63" s="78"/>
+      <c r="B63" s="141"/>
       <c r="C63" s="38" t="s">
         <v>55</v>
       </c>
@@ -4258,10 +4258,10 @@
       </c>
     </row>
     <row r="64" spans="1:12" ht="135" x14ac:dyDescent="0.2">
-      <c r="A64" s="79">
+      <c r="A64" s="171">
         <v>9</v>
       </c>
-      <c r="B64" s="80"/>
+      <c r="B64" s="172"/>
       <c r="C64" s="38" t="s">
         <v>56</v>
       </c>
@@ -4291,10 +4291,10 @@
       </c>
     </row>
     <row r="65" spans="1:10" ht="90" x14ac:dyDescent="0.2">
-      <c r="A65" s="58">
+      <c r="A65" s="166">
         <v>10</v>
       </c>
-      <c r="B65" s="59"/>
+      <c r="B65" s="167"/>
       <c r="C65" s="44" t="s">
         <v>58</v>
       </c>
@@ -4324,10 +4324,10 @@
       </c>
     </row>
     <row r="66" spans="1:10" ht="75" x14ac:dyDescent="0.2">
-      <c r="A66" s="58">
+      <c r="A66" s="166">
         <v>11</v>
       </c>
-      <c r="B66" s="59"/>
+      <c r="B66" s="167"/>
       <c r="C66" s="43" t="s">
         <v>88</v>
       </c>
@@ -4357,10 +4357,10 @@
       </c>
     </row>
     <row r="67" spans="1:10" ht="111.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="58">
+      <c r="A67" s="166">
         <v>12</v>
       </c>
-      <c r="B67" s="62"/>
+      <c r="B67" s="168"/>
       <c r="C67" s="18" t="s">
         <v>95</v>
       </c>
@@ -4373,10 +4373,10 @@
       <c r="J67" s="11"/>
     </row>
     <row r="68" spans="1:10" ht="30" x14ac:dyDescent="0.2">
-      <c r="A68" s="70">
+      <c r="A68" s="173">
         <v>12.1</v>
       </c>
-      <c r="B68" s="76"/>
+      <c r="B68" s="174"/>
       <c r="C68" s="18" t="s">
         <v>59</v>
       </c>
@@ -4389,10 +4389,10 @@
       <c r="J68" s="11"/>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A69" s="72" t="s">
+      <c r="A69" s="145" t="s">
         <v>22</v>
       </c>
-      <c r="B69" s="73"/>
+      <c r="B69" s="146"/>
       <c r="C69" s="38" t="s">
         <v>60</v>
       </c>
@@ -4422,10 +4422,10 @@
       </c>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A70" s="72" t="s">
+      <c r="A70" s="145" t="s">
         <v>24</v>
       </c>
-      <c r="B70" s="73"/>
+      <c r="B70" s="146"/>
       <c r="C70" s="38" t="s">
         <v>61</v>
       </c>
@@ -4453,10 +4453,10 @@
       </c>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A71" s="70">
+      <c r="A71" s="173">
         <v>12.2</v>
       </c>
-      <c r="B71" s="76"/>
+      <c r="B71" s="174"/>
       <c r="C71" s="18" t="s">
         <v>62</v>
       </c>
@@ -4469,10 +4469,10 @@
       <c r="J71" s="11"/>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A72" s="72" t="s">
+      <c r="A72" s="145" t="s">
         <v>22</v>
       </c>
-      <c r="B72" s="73"/>
+      <c r="B72" s="146"/>
       <c r="C72" s="38" t="s">
         <v>63</v>
       </c>
@@ -4502,10 +4502,10 @@
       </c>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A73" s="74" t="s">
+      <c r="A73" s="155" t="s">
         <v>24</v>
       </c>
-      <c r="B73" s="75"/>
+      <c r="B73" s="156"/>
       <c r="C73" s="38" t="s">
         <v>64</v>
       </c>
@@ -4535,10 +4535,10 @@
       </c>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A74" s="70">
+      <c r="A74" s="173">
         <v>12.3</v>
       </c>
-      <c r="B74" s="71"/>
+      <c r="B74" s="175"/>
       <c r="C74" s="44" t="s">
         <v>65</v>
       </c>
@@ -4568,10 +4568,10 @@
       </c>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A75" s="70">
+      <c r="A75" s="173">
         <v>12.3</v>
       </c>
-      <c r="B75" s="76"/>
+      <c r="B75" s="174"/>
       <c r="C75" s="18" t="s">
         <v>66</v>
       </c>
@@ -4584,10 +4584,10 @@
       <c r="J75" s="11"/>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A76" s="72" t="s">
+      <c r="A76" s="145" t="s">
         <v>22</v>
       </c>
-      <c r="B76" s="73"/>
+      <c r="B76" s="146"/>
       <c r="C76" s="38" t="s">
         <v>67</v>
       </c>
@@ -4617,10 +4617,10 @@
       </c>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A77" s="72" t="s">
+      <c r="A77" s="145" t="s">
         <v>24</v>
       </c>
-      <c r="B77" s="73"/>
+      <c r="B77" s="146"/>
       <c r="C77" s="38" t="s">
         <v>68</v>
       </c>
@@ -4650,10 +4650,10 @@
       </c>
     </row>
     <row r="78" spans="1:10" ht="60" x14ac:dyDescent="0.2">
-      <c r="A78" s="58">
+      <c r="A78" s="166">
         <v>13</v>
       </c>
-      <c r="B78" s="62"/>
+      <c r="B78" s="168"/>
       <c r="C78" s="18" t="s">
         <v>69</v>
       </c>
@@ -4666,10 +4666,10 @@
       <c r="J78" s="11"/>
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A79" s="70">
+      <c r="A79" s="173">
         <v>13.1</v>
       </c>
-      <c r="B79" s="71"/>
+      <c r="B79" s="175"/>
       <c r="C79" s="38" t="s">
         <v>70</v>
       </c>
@@ -4699,10 +4699,10 @@
       </c>
     </row>
     <row r="80" spans="1:10" ht="60" x14ac:dyDescent="0.2">
-      <c r="A80" s="58">
+      <c r="A80" s="166">
         <v>14</v>
       </c>
-      <c r="B80" s="62"/>
+      <c r="B80" s="168"/>
       <c r="C80" s="18" t="s">
         <v>71</v>
       </c>
@@ -4715,10 +4715,10 @@
       <c r="J80" s="11"/>
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A81" s="70">
+      <c r="A81" s="173">
         <v>14.1</v>
       </c>
-      <c r="B81" s="71"/>
+      <c r="B81" s="175"/>
       <c r="C81" s="38" t="s">
         <v>70</v>
       </c>
@@ -4748,10 +4748,10 @@
       </c>
     </row>
     <row r="82" spans="1:10" ht="90" x14ac:dyDescent="0.2">
-      <c r="A82" s="58">
+      <c r="A82" s="166">
         <v>15</v>
       </c>
-      <c r="B82" s="59"/>
+      <c r="B82" s="167"/>
       <c r="C82" s="43" t="s">
         <v>89</v>
       </c>
@@ -4781,10 +4781,10 @@
       </c>
     </row>
     <row r="83" spans="1:10" ht="60" x14ac:dyDescent="0.2">
-      <c r="A83" s="60">
+      <c r="A83" s="179">
         <v>16</v>
       </c>
-      <c r="B83" s="61"/>
+      <c r="B83" s="180"/>
       <c r="C83" s="43" t="s">
         <v>90</v>
       </c>
@@ -4814,10 +4814,10 @@
       </c>
     </row>
     <row r="84" spans="1:10" ht="138.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A84" s="58">
+      <c r="A84" s="166">
         <v>17</v>
       </c>
-      <c r="B84" s="62"/>
+      <c r="B84" s="168"/>
       <c r="C84" s="12" t="s">
         <v>72</v>
       </c>
@@ -4847,8 +4847,8 @@
       </c>
     </row>
     <row r="85" spans="1:10" ht="105" x14ac:dyDescent="0.2">
-      <c r="A85" s="63"/>
-      <c r="B85" s="64"/>
+      <c r="A85" s="181"/>
+      <c r="B85" s="182"/>
       <c r="C85" s="22" t="s">
         <v>91</v>
       </c>
@@ -4878,10 +4878,10 @@
       </c>
     </row>
     <row r="86" spans="1:10" ht="90" x14ac:dyDescent="0.2">
-      <c r="A86" s="60">
+      <c r="A86" s="179">
         <v>18</v>
       </c>
-      <c r="B86" s="65"/>
+      <c r="B86" s="183"/>
       <c r="C86" s="48" t="s">
         <v>92</v>
       </c>
@@ -4911,10 +4911,10 @@
       </c>
     </row>
     <row r="87" spans="1:10" ht="105" x14ac:dyDescent="0.2">
-      <c r="A87" s="58">
+      <c r="A87" s="166">
         <v>19</v>
       </c>
-      <c r="B87" s="62"/>
+      <c r="B87" s="168"/>
       <c r="C87" s="12" t="s">
         <v>97</v>
       </c>
@@ -4944,10 +4944,10 @@
       </c>
     </row>
     <row r="88" spans="1:10" ht="75" x14ac:dyDescent="0.2">
-      <c r="A88" s="58">
+      <c r="A88" s="166">
         <v>20</v>
       </c>
-      <c r="B88" s="62"/>
+      <c r="B88" s="168"/>
       <c r="C88" s="8" t="s">
         <v>93</v>
       </c>
@@ -4977,10 +4977,10 @@
       </c>
     </row>
     <row r="89" spans="1:10" ht="105" x14ac:dyDescent="0.2">
-      <c r="A89" s="66">
+      <c r="A89" s="184">
         <v>21</v>
       </c>
-      <c r="B89" s="67"/>
+      <c r="B89" s="185"/>
       <c r="C89" s="12" t="s">
         <v>96</v>
       </c>
@@ -5010,8 +5010,8 @@
       </c>
     </row>
     <row r="90" spans="1:10" s="29" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A90" s="68"/>
-      <c r="B90" s="69"/>
+      <c r="A90" s="186"/>
+      <c r="B90" s="187"/>
       <c r="C90" s="28" t="s">
         <v>73</v>
       </c>
@@ -5033,150 +5033,69 @@
       </c>
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A91" s="55" t="s">
+      <c r="A91" s="176" t="s">
         <v>74</v>
       </c>
-      <c r="B91" s="55"/>
-      <c r="C91" s="55"/>
-      <c r="D91" s="55"/>
-      <c r="E91" s="55"/>
-      <c r="F91" s="55"/>
-      <c r="G91" s="55"/>
-      <c r="H91" s="55"/>
-      <c r="I91" s="55"/>
-      <c r="J91" s="55"/>
+      <c r="B91" s="176"/>
+      <c r="C91" s="176"/>
+      <c r="D91" s="176"/>
+      <c r="E91" s="176"/>
+      <c r="F91" s="176"/>
+      <c r="G91" s="176"/>
+      <c r="H91" s="176"/>
+      <c r="I91" s="176"/>
+      <c r="J91" s="176"/>
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A92" s="26" t="s">
         <v>75</v>
       </c>
-      <c r="B92" s="56" t="s">
+      <c r="B92" s="177" t="s">
         <v>76</v>
       </c>
-      <c r="C92" s="56"/>
-      <c r="D92" s="56"/>
-      <c r="E92" s="56"/>
-      <c r="F92" s="56"/>
-      <c r="G92" s="56"/>
-      <c r="H92" s="56"/>
-      <c r="I92" s="56"/>
-      <c r="J92" s="56"/>
+      <c r="C92" s="177"/>
+      <c r="D92" s="177"/>
+      <c r="E92" s="177"/>
+      <c r="F92" s="177"/>
+      <c r="G92" s="177"/>
+      <c r="H92" s="177"/>
+      <c r="I92" s="177"/>
+      <c r="J92" s="177"/>
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A93" s="26" t="s">
         <v>77</v>
       </c>
-      <c r="B93" s="56" t="s">
+      <c r="B93" s="177" t="s">
         <v>78</v>
       </c>
-      <c r="C93" s="56"/>
-      <c r="D93" s="56"/>
-      <c r="E93" s="56"/>
-      <c r="F93" s="56"/>
-      <c r="G93" s="56"/>
-      <c r="H93" s="56"/>
-      <c r="I93" s="56"/>
-      <c r="J93" s="56"/>
+      <c r="C93" s="177"/>
+      <c r="D93" s="177"/>
+      <c r="E93" s="177"/>
+      <c r="F93" s="177"/>
+      <c r="G93" s="177"/>
+      <c r="H93" s="177"/>
+      <c r="I93" s="177"/>
+      <c r="J93" s="177"/>
     </row>
     <row r="94" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="26" t="s">
         <v>79</v>
       </c>
-      <c r="B94" s="56" t="s">
+      <c r="B94" s="177" t="s">
         <v>80</v>
       </c>
-      <c r="C94" s="56"/>
-      <c r="D94" s="56"/>
-      <c r="E94" s="56"/>
-      <c r="F94" s="56"/>
-      <c r="G94" s="56"/>
-      <c r="H94" s="56"/>
-      <c r="I94" s="56"/>
+      <c r="C94" s="177"/>
+      <c r="D94" s="177"/>
+      <c r="E94" s="177"/>
+      <c r="F94" s="177"/>
+      <c r="G94" s="177"/>
+      <c r="H94" s="177"/>
+      <c r="I94" s="177"/>
       <c r="J94" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="97">
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="A2:J2"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="A5:E5"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="A43:B43"/>
-    <mergeCell ref="A44:B44"/>
-    <mergeCell ref="A45:B45"/>
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="A37:B37"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="A39:B39"/>
-    <mergeCell ref="A40:B40"/>
-    <mergeCell ref="A41:B41"/>
-    <mergeCell ref="A42:B42"/>
-    <mergeCell ref="A53:B53"/>
-    <mergeCell ref="A54:B54"/>
-    <mergeCell ref="A55:B55"/>
-    <mergeCell ref="A56:B56"/>
-    <mergeCell ref="A46:B46"/>
-    <mergeCell ref="A47:B47"/>
-    <mergeCell ref="A48:B48"/>
-    <mergeCell ref="A49:B49"/>
-    <mergeCell ref="A50:B50"/>
-    <mergeCell ref="A51:B51"/>
-    <mergeCell ref="A52:B52"/>
-    <mergeCell ref="A65:B65"/>
-    <mergeCell ref="A66:B66"/>
-    <mergeCell ref="A67:B67"/>
-    <mergeCell ref="A57:B57"/>
-    <mergeCell ref="A58:B58"/>
-    <mergeCell ref="A59:B59"/>
-    <mergeCell ref="A60:B60"/>
-    <mergeCell ref="A61:B61"/>
-    <mergeCell ref="A62:B62"/>
-    <mergeCell ref="A63:B63"/>
-    <mergeCell ref="A64:B64"/>
-    <mergeCell ref="A71:B71"/>
-    <mergeCell ref="A72:B72"/>
-    <mergeCell ref="A68:B68"/>
-    <mergeCell ref="A69:B69"/>
-    <mergeCell ref="A70:B70"/>
-    <mergeCell ref="A76:B76"/>
-    <mergeCell ref="A77:B77"/>
-    <mergeCell ref="A78:B78"/>
-    <mergeCell ref="A79:B79"/>
-    <mergeCell ref="A73:B73"/>
-    <mergeCell ref="A74:B74"/>
-    <mergeCell ref="A75:B75"/>
     <mergeCell ref="A91:J91"/>
     <mergeCell ref="B93:J93"/>
     <mergeCell ref="B94:I94"/>
@@ -5193,6 +5112,87 @@
     <mergeCell ref="A90:B90"/>
     <mergeCell ref="A80:B80"/>
     <mergeCell ref="A81:B81"/>
+    <mergeCell ref="A76:B76"/>
+    <mergeCell ref="A77:B77"/>
+    <mergeCell ref="A78:B78"/>
+    <mergeCell ref="A79:B79"/>
+    <mergeCell ref="A73:B73"/>
+    <mergeCell ref="A74:B74"/>
+    <mergeCell ref="A75:B75"/>
+    <mergeCell ref="A71:B71"/>
+    <mergeCell ref="A72:B72"/>
+    <mergeCell ref="A68:B68"/>
+    <mergeCell ref="A69:B69"/>
+    <mergeCell ref="A70:B70"/>
+    <mergeCell ref="A65:B65"/>
+    <mergeCell ref="A66:B66"/>
+    <mergeCell ref="A67:B67"/>
+    <mergeCell ref="A57:B57"/>
+    <mergeCell ref="A58:B58"/>
+    <mergeCell ref="A59:B59"/>
+    <mergeCell ref="A60:B60"/>
+    <mergeCell ref="A61:B61"/>
+    <mergeCell ref="A62:B62"/>
+    <mergeCell ref="A63:B63"/>
+    <mergeCell ref="A64:B64"/>
+    <mergeCell ref="A53:B53"/>
+    <mergeCell ref="A54:B54"/>
+    <mergeCell ref="A55:B55"/>
+    <mergeCell ref="A56:B56"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="A51:B51"/>
+    <mergeCell ref="A52:B52"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A2:J2"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="A5:E5"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A9:B9"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0" top="0.35433070866141736" bottom="0.15748031496062992" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -5212,14 +5212,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79EB832E-C592-435B-9376-2D844E5E43BC}">
   <dimension ref="A1:J55"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+    <sheetView topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F35" sqref="F35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="6.1640625" style="105" customWidth="1"/>
-    <col min="2" max="2" width="5.83203125" style="105" customWidth="1"/>
+    <col min="1" max="1" width="6.1640625" style="57" customWidth="1"/>
+    <col min="2" max="2" width="5.83203125" style="57" customWidth="1"/>
     <col min="3" max="3" width="56.5" style="2" customWidth="1"/>
     <col min="4" max="4" width="6.1640625" style="1" customWidth="1"/>
     <col min="5" max="5" width="7.5" style="1" customWidth="1"/>
@@ -5232,39 +5232,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="32" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="95" t="s">
+      <c r="A1" s="147" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="95"/>
-      <c r="C1" s="95"/>
-      <c r="D1" s="95"/>
-      <c r="E1" s="95"/>
-      <c r="F1" s="95"/>
-      <c r="G1" s="95"/>
-      <c r="H1" s="95"/>
-      <c r="I1" s="95"/>
-      <c r="J1" s="95"/>
+      <c r="B1" s="147"/>
+      <c r="C1" s="147"/>
+      <c r="D1" s="147"/>
+      <c r="E1" s="147"/>
+      <c r="F1" s="147"/>
+      <c r="G1" s="147"/>
+      <c r="H1" s="147"/>
+      <c r="I1" s="147"/>
+      <c r="J1" s="147"/>
     </row>
     <row r="2" spans="1:10" s="32" customFormat="1" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="96" t="s">
+      <c r="A2" s="148" t="s">
         <v>145</v>
       </c>
-      <c r="B2" s="96"/>
-      <c r="C2" s="96"/>
-      <c r="D2" s="96"/>
-      <c r="E2" s="96"/>
-      <c r="F2" s="96"/>
-      <c r="G2" s="96"/>
-      <c r="H2" s="96"/>
-      <c r="I2" s="96"/>
-      <c r="J2" s="96"/>
+      <c r="B2" s="148"/>
+      <c r="C2" s="148"/>
+      <c r="D2" s="148"/>
+      <c r="E2" s="148"/>
+      <c r="F2" s="148"/>
+      <c r="G2" s="148"/>
+      <c r="H2" s="148"/>
+      <c r="I2" s="148"/>
+      <c r="J2" s="148"/>
     </row>
     <row r="3" spans="1:10" s="32" customFormat="1" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="95" t="s">
+      <c r="A3" s="147" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="95"/>
-      <c r="C3" s="95"/>
+      <c r="B3" s="147"/>
+      <c r="C3" s="147"/>
       <c r="D3" s="33"/>
       <c r="E3" s="33"/>
       <c r="F3" s="34"/>
@@ -5276,250 +5276,250 @@
       </c>
     </row>
     <row r="4" spans="1:10" s="32" customFormat="1" ht="23.85" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="96" t="s">
+      <c r="A4" s="148" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="96"/>
-      <c r="C4" s="96"/>
+      <c r="B4" s="148"/>
+      <c r="C4" s="148"/>
       <c r="D4" s="33"/>
       <c r="E4" s="33"/>
       <c r="F4" s="36"/>
       <c r="G4" s="36"/>
       <c r="H4" s="36"/>
-      <c r="I4" s="57" t="s">
+      <c r="I4" s="178" t="s">
         <v>5</v>
       </c>
-      <c r="J4" s="57"/>
+      <c r="J4" s="178"/>
     </row>
     <row r="5" spans="1:10" s="1" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="97"/>
-      <c r="B5" s="97"/>
-      <c r="C5" s="97"/>
-      <c r="D5" s="97"/>
-      <c r="E5" s="98"/>
-      <c r="F5" s="99" t="s">
+      <c r="A5" s="149"/>
+      <c r="B5" s="149"/>
+      <c r="C5" s="149"/>
+      <c r="D5" s="149"/>
+      <c r="E5" s="150"/>
+      <c r="F5" s="151" t="s">
         <v>6</v>
       </c>
-      <c r="G5" s="100"/>
-      <c r="H5" s="99" t="s">
+      <c r="G5" s="152"/>
+      <c r="H5" s="151" t="s">
         <v>7</v>
       </c>
-      <c r="I5" s="100"/>
+      <c r="I5" s="152"/>
       <c r="J5" s="37" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:10" s="1" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="106" t="s">
+      <c r="A6" s="188" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="107"/>
-      <c r="C6" s="103" t="s">
+      <c r="B6" s="189"/>
+      <c r="C6" s="55" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="103" t="s">
+      <c r="D6" s="55" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="103" t="s">
+      <c r="E6" s="55" t="s">
         <v>12</v>
       </c>
-      <c r="F6" s="103" t="s">
+      <c r="F6" s="55" t="s">
         <v>13</v>
       </c>
-      <c r="G6" s="103" t="s">
+      <c r="G6" s="55" t="s">
         <v>14</v>
       </c>
-      <c r="H6" s="103" t="s">
+      <c r="H6" s="55" t="s">
         <v>13</v>
       </c>
-      <c r="I6" s="103" t="s">
+      <c r="I6" s="55" t="s">
         <v>14</v>
       </c>
-      <c r="J6" s="103" t="s">
+      <c r="J6" s="55" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="111"/>
-      <c r="B7" s="118"/>
-      <c r="C7" s="123" t="s">
+      <c r="A7" s="61"/>
+      <c r="B7" s="68"/>
+      <c r="C7" s="73" t="s">
         <v>98</v>
       </c>
-      <c r="D7" s="154"/>
-      <c r="E7" s="155"/>
-      <c r="F7" s="134"/>
-      <c r="G7" s="146"/>
-      <c r="H7" s="134"/>
-      <c r="I7" s="146"/>
-      <c r="J7" s="134"/>
+      <c r="D7" s="104"/>
+      <c r="E7" s="105"/>
+      <c r="F7" s="84"/>
+      <c r="G7" s="96"/>
+      <c r="H7" s="84"/>
+      <c r="I7" s="96"/>
+      <c r="J7" s="84"/>
     </row>
     <row r="8" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="112"/>
-      <c r="B8" s="108"/>
-      <c r="C8" s="119" t="s">
+      <c r="A8" s="62"/>
+      <c r="B8" s="58"/>
+      <c r="C8" s="69" t="s">
         <v>99</v>
       </c>
-      <c r="D8" s="156"/>
-      <c r="E8" s="157"/>
-      <c r="F8" s="135"/>
-      <c r="G8" s="147"/>
-      <c r="H8" s="135"/>
-      <c r="I8" s="147"/>
-      <c r="J8" s="135"/>
+      <c r="D8" s="106"/>
+      <c r="E8" s="107"/>
+      <c r="F8" s="85"/>
+      <c r="G8" s="97"/>
+      <c r="H8" s="85"/>
+      <c r="I8" s="97"/>
+      <c r="J8" s="85"/>
     </row>
     <row r="9" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="112"/>
-      <c r="B9" s="108"/>
-      <c r="C9" s="119" t="s">
+      <c r="A9" s="62"/>
+      <c r="B9" s="58"/>
+      <c r="C9" s="69" t="s">
         <v>100</v>
       </c>
-      <c r="D9" s="156"/>
-      <c r="E9" s="157"/>
-      <c r="F9" s="135"/>
-      <c r="G9" s="147"/>
-      <c r="H9" s="135"/>
-      <c r="I9" s="147"/>
-      <c r="J9" s="135"/>
+      <c r="D9" s="106"/>
+      <c r="E9" s="107"/>
+      <c r="F9" s="85"/>
+      <c r="G9" s="97"/>
+      <c r="H9" s="85"/>
+      <c r="I9" s="97"/>
+      <c r="J9" s="85"/>
     </row>
     <row r="10" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="112"/>
-      <c r="B10" s="108"/>
-      <c r="C10" s="119" t="s">
+      <c r="A10" s="62"/>
+      <c r="B10" s="58"/>
+      <c r="C10" s="69" t="s">
         <v>101</v>
       </c>
-      <c r="D10" s="156"/>
-      <c r="E10" s="157"/>
-      <c r="F10" s="135"/>
-      <c r="G10" s="147"/>
-      <c r="H10" s="135"/>
-      <c r="I10" s="147"/>
-      <c r="J10" s="135"/>
+      <c r="D10" s="106"/>
+      <c r="E10" s="107"/>
+      <c r="F10" s="85"/>
+      <c r="G10" s="97"/>
+      <c r="H10" s="85"/>
+      <c r="I10" s="97"/>
+      <c r="J10" s="85"/>
     </row>
     <row r="11" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="112"/>
-      <c r="B11" s="108"/>
-      <c r="C11" s="119" t="s">
+      <c r="A11" s="62"/>
+      <c r="B11" s="58"/>
+      <c r="C11" s="69" t="s">
         <v>102</v>
       </c>
-      <c r="D11" s="156"/>
-      <c r="E11" s="157"/>
-      <c r="F11" s="135"/>
-      <c r="G11" s="147"/>
-      <c r="H11" s="135"/>
-      <c r="I11" s="147"/>
-      <c r="J11" s="135"/>
+      <c r="D11" s="106"/>
+      <c r="E11" s="107"/>
+      <c r="F11" s="85"/>
+      <c r="G11" s="97"/>
+      <c r="H11" s="85"/>
+      <c r="I11" s="97"/>
+      <c r="J11" s="85"/>
     </row>
     <row r="12" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="113">
+      <c r="A12" s="63">
         <v>1</v>
       </c>
-      <c r="B12" s="109"/>
-      <c r="C12" s="119" t="s">
+      <c r="B12" s="59"/>
+      <c r="C12" s="69" t="s">
         <v>103</v>
       </c>
-      <c r="D12" s="156"/>
-      <c r="E12" s="157"/>
-      <c r="F12" s="135"/>
-      <c r="G12" s="147"/>
-      <c r="H12" s="135"/>
-      <c r="I12" s="147"/>
-      <c r="J12" s="135"/>
+      <c r="D12" s="106"/>
+      <c r="E12" s="107"/>
+      <c r="F12" s="85"/>
+      <c r="G12" s="97"/>
+      <c r="H12" s="85"/>
+      <c r="I12" s="97"/>
+      <c r="J12" s="85"/>
     </row>
     <row r="13" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="112"/>
-      <c r="B13" s="108"/>
-      <c r="C13" s="119" t="s">
+      <c r="A13" s="62"/>
+      <c r="B13" s="58"/>
+      <c r="C13" s="69" t="s">
         <v>104</v>
       </c>
-      <c r="D13" s="156"/>
-      <c r="E13" s="157"/>
-      <c r="F13" s="135"/>
-      <c r="G13" s="147"/>
-      <c r="H13" s="135"/>
-      <c r="I13" s="147"/>
-      <c r="J13" s="135"/>
+      <c r="D13" s="106"/>
+      <c r="E13" s="107"/>
+      <c r="F13" s="85"/>
+      <c r="G13" s="97"/>
+      <c r="H13" s="85"/>
+      <c r="I13" s="97"/>
+      <c r="J13" s="85"/>
     </row>
     <row r="14" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="112"/>
-      <c r="B14" s="108"/>
-      <c r="C14" s="119" t="s">
+      <c r="A14" s="62"/>
+      <c r="B14" s="58"/>
+      <c r="C14" s="69" t="s">
         <v>105</v>
       </c>
-      <c r="D14" s="156"/>
-      <c r="E14" s="157"/>
-      <c r="F14" s="135"/>
-      <c r="G14" s="147"/>
-      <c r="H14" s="135"/>
-      <c r="I14" s="147"/>
-      <c r="J14" s="135"/>
+      <c r="D14" s="106"/>
+      <c r="E14" s="107"/>
+      <c r="F14" s="85"/>
+      <c r="G14" s="97"/>
+      <c r="H14" s="85"/>
+      <c r="I14" s="97"/>
+      <c r="J14" s="85"/>
     </row>
     <row r="15" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="112"/>
-      <c r="B15" s="108"/>
-      <c r="C15" s="119" t="s">
+      <c r="A15" s="62"/>
+      <c r="B15" s="58"/>
+      <c r="C15" s="69" t="s">
         <v>106</v>
       </c>
-      <c r="D15" s="156"/>
-      <c r="E15" s="157"/>
-      <c r="F15" s="135"/>
-      <c r="G15" s="147"/>
-      <c r="H15" s="135"/>
-      <c r="I15" s="147"/>
-      <c r="J15" s="135"/>
+      <c r="D15" s="106"/>
+      <c r="E15" s="107"/>
+      <c r="F15" s="85"/>
+      <c r="G15" s="97"/>
+      <c r="H15" s="85"/>
+      <c r="I15" s="97"/>
+      <c r="J15" s="85"/>
     </row>
     <row r="16" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="112"/>
-      <c r="B16" s="108"/>
-      <c r="C16" s="119" t="s">
+      <c r="A16" s="62"/>
+      <c r="B16" s="58"/>
+      <c r="C16" s="69" t="s">
         <v>107</v>
       </c>
-      <c r="D16" s="156"/>
-      <c r="E16" s="157"/>
-      <c r="F16" s="135"/>
-      <c r="G16" s="147"/>
-      <c r="H16" s="135"/>
-      <c r="I16" s="147"/>
-      <c r="J16" s="135"/>
+      <c r="D16" s="106"/>
+      <c r="E16" s="107"/>
+      <c r="F16" s="85"/>
+      <c r="G16" s="97"/>
+      <c r="H16" s="85"/>
+      <c r="I16" s="97"/>
+      <c r="J16" s="85"/>
     </row>
     <row r="17" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="112"/>
-      <c r="B17" s="108"/>
-      <c r="C17" s="126" t="s">
+      <c r="A17" s="62"/>
+      <c r="B17" s="58"/>
+      <c r="C17" s="76" t="s">
         <v>108</v>
       </c>
-      <c r="D17" s="158"/>
-      <c r="E17" s="159"/>
-      <c r="F17" s="136"/>
-      <c r="G17" s="148"/>
-      <c r="H17" s="136"/>
-      <c r="I17" s="148"/>
-      <c r="J17" s="136"/>
+      <c r="D17" s="108"/>
+      <c r="E17" s="109"/>
+      <c r="F17" s="86"/>
+      <c r="G17" s="98"/>
+      <c r="H17" s="86"/>
+      <c r="I17" s="98"/>
+      <c r="J17" s="86"/>
     </row>
     <row r="18" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="115"/>
-      <c r="B18" s="116">
+      <c r="A18" s="65"/>
+      <c r="B18" s="66">
         <v>1.1000000000000001</v>
       </c>
-      <c r="C18" s="133" t="s">
+      <c r="C18" s="83" t="s">
         <v>109</v>
       </c>
       <c r="D18" s="39" t="s">
         <v>110</v>
       </c>
-      <c r="E18" s="150">
+      <c r="E18" s="100">
         <v>200</v>
       </c>
       <c r="F18" s="41">
         <v>2550</v>
       </c>
-      <c r="G18" s="149">
+      <c r="G18" s="99">
         <f>F18*E18</f>
         <v>510000</v>
       </c>
       <c r="H18" s="41">
         <v>500</v>
       </c>
-      <c r="I18" s="149">
+      <c r="I18" s="99">
         <f>H18*E18</f>
         <v>100000</v>
       </c>
@@ -5529,30 +5529,30 @@
       </c>
     </row>
     <row r="19" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="115"/>
-      <c r="B19" s="116">
+      <c r="A19" s="65"/>
+      <c r="B19" s="66">
         <v>1.2</v>
       </c>
-      <c r="C19" s="133" t="s">
+      <c r="C19" s="83" t="s">
         <v>111</v>
       </c>
       <c r="D19" s="39" t="s">
         <v>110</v>
       </c>
-      <c r="E19" s="150">
+      <c r="E19" s="100">
         <v>20</v>
       </c>
       <c r="F19" s="41">
         <v>3150</v>
       </c>
-      <c r="G19" s="149">
+      <c r="G19" s="99">
         <f t="shared" ref="G19:G23" si="0">F19*E19</f>
         <v>63000</v>
       </c>
       <c r="H19" s="41">
         <v>600</v>
       </c>
-      <c r="I19" s="149">
+      <c r="I19" s="99">
         <f t="shared" ref="I19:I23" si="1">H19*E19</f>
         <v>12000</v>
       </c>
@@ -5562,30 +5562,30 @@
       </c>
     </row>
     <row r="20" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="115"/>
-      <c r="B20" s="116">
+      <c r="A20" s="65"/>
+      <c r="B20" s="66">
         <v>1.3</v>
       </c>
-      <c r="C20" s="133" t="s">
+      <c r="C20" s="83" t="s">
         <v>112</v>
       </c>
       <c r="D20" s="39" t="s">
         <v>110</v>
       </c>
-      <c r="E20" s="150">
+      <c r="E20" s="100">
         <v>14</v>
       </c>
       <c r="F20" s="41">
         <v>3750</v>
       </c>
-      <c r="G20" s="149">
+      <c r="G20" s="99">
         <f t="shared" si="0"/>
         <v>52500</v>
       </c>
       <c r="H20" s="41">
         <v>700</v>
       </c>
-      <c r="I20" s="149">
+      <c r="I20" s="99">
         <f t="shared" si="1"/>
         <v>9800</v>
       </c>
@@ -5595,30 +5595,30 @@
       </c>
     </row>
     <row r="21" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="115"/>
-      <c r="B21" s="116">
+      <c r="A21" s="65"/>
+      <c r="B21" s="66">
         <v>1.4</v>
       </c>
-      <c r="C21" s="133" t="s">
+      <c r="C21" s="83" t="s">
         <v>113</v>
       </c>
       <c r="D21" s="39" t="s">
         <v>110</v>
       </c>
-      <c r="E21" s="150">
+      <c r="E21" s="100">
         <v>32</v>
       </c>
       <c r="F21" s="41">
         <v>4950</v>
       </c>
-      <c r="G21" s="149">
+      <c r="G21" s="99">
         <f t="shared" si="0"/>
         <v>158400</v>
       </c>
       <c r="H21" s="41">
         <v>850</v>
       </c>
-      <c r="I21" s="149">
+      <c r="I21" s="99">
         <f t="shared" si="1"/>
         <v>27200</v>
       </c>
@@ -5628,30 +5628,30 @@
       </c>
     </row>
     <row r="22" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="115"/>
-      <c r="B22" s="116">
+      <c r="A22" s="65"/>
+      <c r="B22" s="66">
         <v>1.5</v>
       </c>
-      <c r="C22" s="133" t="s">
+      <c r="C22" s="83" t="s">
         <v>114</v>
       </c>
       <c r="D22" s="39" t="s">
         <v>110</v>
       </c>
-      <c r="E22" s="150">
+      <c r="E22" s="100">
         <v>56</v>
       </c>
       <c r="F22" s="41">
         <v>7380</v>
       </c>
-      <c r="G22" s="149">
+      <c r="G22" s="99">
         <f t="shared" si="0"/>
         <v>413280</v>
       </c>
       <c r="H22" s="41">
         <v>1000</v>
       </c>
-      <c r="I22" s="149">
+      <c r="I22" s="99">
         <f t="shared" si="1"/>
         <v>56000</v>
       </c>
@@ -5661,208 +5661,208 @@
       </c>
     </row>
     <row r="23" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="115"/>
-      <c r="B23" s="116">
+      <c r="A23" s="65"/>
+      <c r="B23" s="66">
         <v>1.6</v>
       </c>
-      <c r="C23" s="127" t="s">
+      <c r="C23" s="77" t="s">
         <v>115</v>
       </c>
-      <c r="D23" s="160" t="s">
+      <c r="D23" s="110" t="s">
         <v>110</v>
       </c>
-      <c r="E23" s="151">
+      <c r="E23" s="101">
         <v>30</v>
       </c>
-      <c r="F23" s="120">
+      <c r="F23" s="70">
         <v>16500</v>
       </c>
-      <c r="G23" s="143">
+      <c r="G23" s="93">
         <f t="shared" si="0"/>
         <v>495000</v>
       </c>
-      <c r="H23" s="120">
+      <c r="H23" s="70">
         <v>1500</v>
       </c>
-      <c r="I23" s="143">
+      <c r="I23" s="93">
         <f t="shared" si="1"/>
         <v>45000</v>
       </c>
-      <c r="J23" s="120">
+      <c r="J23" s="70">
         <f t="shared" si="2"/>
         <v>540000</v>
       </c>
     </row>
     <row r="24" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="113">
+      <c r="A24" s="63">
         <v>2</v>
       </c>
-      <c r="B24" s="109"/>
-      <c r="C24" s="123" t="s">
+      <c r="B24" s="59"/>
+      <c r="C24" s="73" t="s">
         <v>116</v>
       </c>
-      <c r="D24" s="154"/>
-      <c r="E24" s="155"/>
-      <c r="F24" s="120"/>
-      <c r="G24" s="143"/>
-      <c r="H24" s="120"/>
-      <c r="I24" s="143"/>
-      <c r="J24" s="120"/>
+      <c r="D24" s="104"/>
+      <c r="E24" s="105"/>
+      <c r="F24" s="70"/>
+      <c r="G24" s="93"/>
+      <c r="H24" s="70"/>
+      <c r="I24" s="93"/>
+      <c r="J24" s="70"/>
     </row>
     <row r="25" spans="1:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="115"/>
-      <c r="B25" s="110">
+      <c r="A25" s="65"/>
+      <c r="B25" s="60">
         <v>2.1</v>
       </c>
-      <c r="C25" s="119" t="s">
+      <c r="C25" s="69" t="s">
         <v>117</v>
       </c>
-      <c r="D25" s="156"/>
-      <c r="E25" s="157"/>
-      <c r="F25" s="139"/>
-      <c r="G25" s="121"/>
-      <c r="H25" s="139"/>
-      <c r="I25" s="121"/>
-      <c r="J25" s="139"/>
+      <c r="D25" s="106"/>
+      <c r="E25" s="107"/>
+      <c r="F25" s="89"/>
+      <c r="G25" s="71"/>
+      <c r="H25" s="89"/>
+      <c r="I25" s="71"/>
+      <c r="J25" s="89"/>
     </row>
     <row r="26" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="112"/>
-      <c r="B26" s="108"/>
-      <c r="C26" s="119" t="s">
+      <c r="A26" s="62"/>
+      <c r="B26" s="58"/>
+      <c r="C26" s="69" t="s">
         <v>118</v>
       </c>
-      <c r="D26" s="161" t="s">
+      <c r="D26" s="111" t="s">
         <v>17</v>
       </c>
-      <c r="E26" s="152">
+      <c r="E26" s="102">
         <v>86</v>
       </c>
-      <c r="F26" s="139">
+      <c r="F26" s="89">
         <v>8250</v>
       </c>
-      <c r="G26" s="122">
+      <c r="G26" s="72">
         <f t="shared" ref="G26" si="3">F26*E26</f>
         <v>709500</v>
       </c>
-      <c r="H26" s="139">
+      <c r="H26" s="89">
         <v>750</v>
       </c>
-      <c r="I26" s="122">
+      <c r="I26" s="72">
         <f t="shared" ref="I26" si="4">H26*E26</f>
         <v>64500</v>
       </c>
-      <c r="J26" s="137">
+      <c r="J26" s="87">
         <f t="shared" ref="J26" si="5">I26+G26</f>
         <v>774000</v>
       </c>
     </row>
     <row r="27" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="113">
+      <c r="A27" s="63">
         <v>3</v>
       </c>
-      <c r="B27" s="109"/>
-      <c r="C27" s="123" t="s">
+      <c r="B27" s="59"/>
+      <c r="C27" s="73" t="s">
         <v>119</v>
       </c>
-      <c r="D27" s="154"/>
-      <c r="E27" s="155"/>
-      <c r="F27" s="138"/>
-      <c r="G27" s="124"/>
-      <c r="H27" s="138"/>
-      <c r="I27" s="124"/>
-      <c r="J27" s="138"/>
+      <c r="D27" s="104"/>
+      <c r="E27" s="105"/>
+      <c r="F27" s="88"/>
+      <c r="G27" s="74"/>
+      <c r="H27" s="88"/>
+      <c r="I27" s="74"/>
+      <c r="J27" s="88"/>
     </row>
     <row r="28" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="115"/>
-      <c r="B28" s="110">
+      <c r="A28" s="65"/>
+      <c r="B28" s="60">
         <v>3.1</v>
       </c>
-      <c r="C28" s="145" t="s">
+      <c r="C28" s="95" t="s">
         <v>120</v>
       </c>
-      <c r="D28" s="161" t="s">
+      <c r="D28" s="111" t="s">
         <v>17</v>
       </c>
-      <c r="E28" s="152">
+      <c r="E28" s="102">
         <v>2</v>
       </c>
-      <c r="F28" s="139">
+      <c r="F28" s="89">
         <v>27000</v>
       </c>
-      <c r="G28" s="122">
+      <c r="G28" s="72">
         <f t="shared" ref="G28:G30" si="6">F28*E28</f>
         <v>54000</v>
       </c>
-      <c r="H28" s="139">
+      <c r="H28" s="89">
         <v>1000</v>
       </c>
-      <c r="I28" s="122">
+      <c r="I28" s="72">
         <f t="shared" ref="I28:I30" si="7">H28*E28</f>
         <v>2000</v>
       </c>
-      <c r="J28" s="137">
+      <c r="J28" s="87">
         <f t="shared" ref="J28:J30" si="8">I28+G28</f>
         <v>56000</v>
       </c>
     </row>
     <row r="29" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="115"/>
-      <c r="B29" s="110">
+      <c r="A29" s="65"/>
+      <c r="B29" s="60">
         <v>3.2</v>
       </c>
-      <c r="C29" s="119" t="s">
+      <c r="C29" s="69" t="s">
         <v>121</v>
       </c>
-      <c r="D29" s="161" t="s">
+      <c r="D29" s="111" t="s">
         <v>17</v>
       </c>
-      <c r="E29" s="152">
+      <c r="E29" s="102">
         <v>2</v>
       </c>
-      <c r="F29" s="137">
+      <c r="F29" s="87">
         <v>14500</v>
       </c>
-      <c r="G29" s="122">
+      <c r="G29" s="72">
         <f t="shared" si="6"/>
         <v>29000</v>
       </c>
-      <c r="H29" s="137">
+      <c r="H29" s="87">
         <v>1000</v>
       </c>
-      <c r="I29" s="122">
+      <c r="I29" s="72">
         <f t="shared" si="7"/>
         <v>2000</v>
       </c>
-      <c r="J29" s="137">
+      <c r="J29" s="87">
         <f t="shared" si="8"/>
         <v>31000</v>
       </c>
     </row>
     <row r="30" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="142"/>
-      <c r="B30" s="144">
+      <c r="A30" s="92"/>
+      <c r="B30" s="94">
         <v>3.3</v>
       </c>
-      <c r="C30" s="126" t="s">
+      <c r="C30" s="76" t="s">
         <v>122</v>
       </c>
       <c r="D30" s="45" t="s">
         <v>19</v>
       </c>
-      <c r="E30" s="153">
+      <c r="E30" s="103">
         <v>1</v>
       </c>
       <c r="F30" s="47">
         <v>35000</v>
       </c>
-      <c r="G30" s="129">
+      <c r="G30" s="79">
         <f t="shared" si="6"/>
         <v>35000</v>
       </c>
       <c r="H30" s="47">
         <v>1000</v>
       </c>
-      <c r="I30" s="129">
+      <c r="I30" s="79">
         <f t="shared" si="7"/>
         <v>1000</v>
       </c>
@@ -5872,227 +5872,227 @@
       </c>
     </row>
     <row r="31" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="113">
+      <c r="A31" s="63">
         <v>4</v>
       </c>
-      <c r="B31" s="109"/>
-      <c r="C31" s="125" t="s">
+      <c r="B31" s="59"/>
+      <c r="C31" s="75" t="s">
         <v>123</v>
       </c>
-      <c r="D31" s="156"/>
-      <c r="E31" s="157"/>
-      <c r="F31" s="139"/>
-      <c r="G31" s="121"/>
-      <c r="H31" s="139"/>
-      <c r="I31" s="121"/>
-      <c r="J31" s="139"/>
+      <c r="D31" s="106"/>
+      <c r="E31" s="107"/>
+      <c r="F31" s="89"/>
+      <c r="G31" s="71"/>
+      <c r="H31" s="89"/>
+      <c r="I31" s="71"/>
+      <c r="J31" s="89"/>
     </row>
     <row r="32" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="112"/>
-      <c r="B32" s="108"/>
-      <c r="C32" s="125" t="s">
+      <c r="A32" s="62"/>
+      <c r="B32" s="58"/>
+      <c r="C32" s="75" t="s">
         <v>124</v>
       </c>
-      <c r="D32" s="156"/>
-      <c r="E32" s="157"/>
-      <c r="F32" s="139"/>
-      <c r="G32" s="121"/>
-      <c r="H32" s="139"/>
-      <c r="I32" s="121"/>
-      <c r="J32" s="139"/>
+      <c r="D32" s="106"/>
+      <c r="E32" s="107"/>
+      <c r="F32" s="89"/>
+      <c r="G32" s="71"/>
+      <c r="H32" s="89"/>
+      <c r="I32" s="71"/>
+      <c r="J32" s="89"/>
     </row>
     <row r="33" spans="1:10" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="115"/>
-      <c r="B33" s="110">
+      <c r="A33" s="65"/>
+      <c r="B33" s="60">
         <v>4.0999999999999996</v>
       </c>
-      <c r="C33" s="119" t="s">
+      <c r="C33" s="69" t="s">
         <v>125</v>
       </c>
-      <c r="D33" s="156"/>
-      <c r="E33" s="157"/>
-      <c r="F33" s="139"/>
-      <c r="G33" s="121"/>
-      <c r="H33" s="139"/>
-      <c r="I33" s="121"/>
-      <c r="J33" s="139"/>
+      <c r="D33" s="106"/>
+      <c r="E33" s="107"/>
+      <c r="F33" s="89"/>
+      <c r="G33" s="71"/>
+      <c r="H33" s="89"/>
+      <c r="I33" s="71"/>
+      <c r="J33" s="89"/>
     </row>
     <row r="34" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="115"/>
-      <c r="B34" s="110">
+      <c r="A34" s="65"/>
+      <c r="B34" s="60">
         <v>4.2</v>
       </c>
-      <c r="C34" s="119" t="s">
+      <c r="C34" s="69" t="s">
         <v>126</v>
       </c>
-      <c r="D34" s="161" t="s">
+      <c r="D34" s="111" t="s">
         <v>19</v>
       </c>
-      <c r="E34" s="152">
+      <c r="E34" s="102">
         <v>1</v>
       </c>
-      <c r="F34" s="139">
-        <v>1072000</v>
-      </c>
-      <c r="G34" s="122">
+      <c r="F34" s="89">
+        <v>892000</v>
+      </c>
+      <c r="G34" s="72">
         <f t="shared" ref="G34" si="9">F34*E34</f>
-        <v>1072000</v>
-      </c>
-      <c r="H34" s="139">
+        <v>892000</v>
+      </c>
+      <c r="H34" s="89">
         <v>10000</v>
       </c>
-      <c r="I34" s="122">
+      <c r="I34" s="72">
         <f t="shared" ref="I34" si="10">H34*E34</f>
         <v>10000</v>
       </c>
-      <c r="J34" s="137">
+      <c r="J34" s="87">
         <f t="shared" ref="J34" si="11">I34+G34</f>
-        <v>1082000</v>
+        <v>902000</v>
       </c>
     </row>
     <row r="35" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="115"/>
-      <c r="B35" s="110">
+      <c r="A35" s="65"/>
+      <c r="B35" s="60">
         <v>4.3</v>
       </c>
-      <c r="C35" s="119" t="s">
+      <c r="C35" s="69" t="s">
         <v>127</v>
       </c>
-      <c r="D35" s="156"/>
-      <c r="E35" s="157"/>
-      <c r="F35" s="139"/>
-      <c r="G35" s="121"/>
-      <c r="H35" s="139"/>
-      <c r="I35" s="121"/>
-      <c r="J35" s="139"/>
+      <c r="D35" s="106"/>
+      <c r="E35" s="107"/>
+      <c r="F35" s="89"/>
+      <c r="G35" s="71"/>
+      <c r="H35" s="89"/>
+      <c r="I35" s="71"/>
+      <c r="J35" s="89"/>
     </row>
     <row r="36" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="115"/>
-      <c r="B36" s="110">
+      <c r="A36" s="65"/>
+      <c r="B36" s="60">
         <v>4.4000000000000004</v>
       </c>
-      <c r="C36" s="119" t="s">
+      <c r="C36" s="69" t="s">
         <v>128</v>
       </c>
-      <c r="D36" s="156"/>
-      <c r="E36" s="157"/>
-      <c r="F36" s="139"/>
-      <c r="G36" s="121"/>
-      <c r="H36" s="139"/>
-      <c r="I36" s="121"/>
-      <c r="J36" s="139"/>
+      <c r="D36" s="106"/>
+      <c r="E36" s="107"/>
+      <c r="F36" s="89"/>
+      <c r="G36" s="71"/>
+      <c r="H36" s="89"/>
+      <c r="I36" s="71"/>
+      <c r="J36" s="89"/>
     </row>
     <row r="37" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="115"/>
-      <c r="B37" s="110">
+      <c r="A37" s="65"/>
+      <c r="B37" s="60">
         <v>4.5</v>
       </c>
-      <c r="C37" s="119" t="s">
+      <c r="C37" s="69" t="s">
         <v>129</v>
       </c>
-      <c r="D37" s="156"/>
-      <c r="E37" s="157"/>
-      <c r="F37" s="139"/>
-      <c r="G37" s="121"/>
-      <c r="H37" s="139"/>
-      <c r="I37" s="121"/>
-      <c r="J37" s="139"/>
+      <c r="D37" s="106"/>
+      <c r="E37" s="107"/>
+      <c r="F37" s="89"/>
+      <c r="G37" s="71"/>
+      <c r="H37" s="89"/>
+      <c r="I37" s="71"/>
+      <c r="J37" s="89"/>
     </row>
     <row r="38" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="112"/>
-      <c r="B38" s="108"/>
-      <c r="C38" s="119" t="s">
+      <c r="A38" s="62"/>
+      <c r="B38" s="58"/>
+      <c r="C38" s="69" t="s">
         <v>130</v>
       </c>
-      <c r="D38" s="156"/>
-      <c r="E38" s="157"/>
-      <c r="F38" s="139"/>
-      <c r="G38" s="121"/>
-      <c r="H38" s="139"/>
-      <c r="I38" s="121"/>
-      <c r="J38" s="139"/>
+      <c r="D38" s="106"/>
+      <c r="E38" s="107"/>
+      <c r="F38" s="89"/>
+      <c r="G38" s="71"/>
+      <c r="H38" s="89"/>
+      <c r="I38" s="71"/>
+      <c r="J38" s="89"/>
     </row>
     <row r="39" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="113">
+      <c r="A39" s="63">
         <v>5</v>
       </c>
-      <c r="B39" s="109"/>
-      <c r="C39" s="127" t="s">
+      <c r="B39" s="59"/>
+      <c r="C39" s="77" t="s">
         <v>131</v>
       </c>
-      <c r="D39" s="154"/>
-      <c r="E39" s="155"/>
-      <c r="F39" s="140"/>
-      <c r="G39" s="128"/>
-      <c r="H39" s="140"/>
-      <c r="I39" s="128"/>
-      <c r="J39" s="140"/>
+      <c r="D39" s="104"/>
+      <c r="E39" s="105"/>
+      <c r="F39" s="90"/>
+      <c r="G39" s="78"/>
+      <c r="H39" s="90"/>
+      <c r="I39" s="78"/>
+      <c r="J39" s="90"/>
     </row>
     <row r="40" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="112"/>
-      <c r="B40" s="108"/>
-      <c r="C40" s="119" t="s">
+      <c r="A40" s="62"/>
+      <c r="B40" s="58"/>
+      <c r="C40" s="69" t="s">
         <v>132</v>
       </c>
-      <c r="D40" s="156"/>
-      <c r="E40" s="157"/>
-      <c r="F40" s="139"/>
-      <c r="G40" s="121"/>
-      <c r="H40" s="139"/>
-      <c r="I40" s="121"/>
-      <c r="J40" s="139"/>
+      <c r="D40" s="106"/>
+      <c r="E40" s="107"/>
+      <c r="F40" s="89"/>
+      <c r="G40" s="71"/>
+      <c r="H40" s="89"/>
+      <c r="I40" s="71"/>
+      <c r="J40" s="89"/>
     </row>
     <row r="41" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="112"/>
-      <c r="B41" s="108"/>
-      <c r="C41" s="119" t="s">
+      <c r="A41" s="62"/>
+      <c r="B41" s="58"/>
+      <c r="C41" s="69" t="s">
         <v>133</v>
       </c>
-      <c r="D41" s="156"/>
-      <c r="E41" s="157"/>
-      <c r="F41" s="139"/>
-      <c r="G41" s="121"/>
-      <c r="H41" s="139"/>
-      <c r="I41" s="121"/>
-      <c r="J41" s="139"/>
+      <c r="D41" s="106"/>
+      <c r="E41" s="107"/>
+      <c r="F41" s="89"/>
+      <c r="G41" s="71"/>
+      <c r="H41" s="89"/>
+      <c r="I41" s="71"/>
+      <c r="J41" s="89"/>
     </row>
     <row r="42" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="112"/>
-      <c r="B42" s="108"/>
-      <c r="C42" s="119" t="s">
+      <c r="A42" s="62"/>
+      <c r="B42" s="58"/>
+      <c r="C42" s="69" t="s">
         <v>134</v>
       </c>
-      <c r="D42" s="156"/>
-      <c r="E42" s="157"/>
-      <c r="F42" s="139"/>
-      <c r="G42" s="121"/>
-      <c r="H42" s="139"/>
-      <c r="I42" s="121"/>
-      <c r="J42" s="139"/>
+      <c r="D42" s="106"/>
+      <c r="E42" s="107"/>
+      <c r="F42" s="89"/>
+      <c r="G42" s="71"/>
+      <c r="H42" s="89"/>
+      <c r="I42" s="71"/>
+      <c r="J42" s="89"/>
     </row>
     <row r="43" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="112"/>
-      <c r="B43" s="108"/>
-      <c r="C43" s="126" t="s">
+      <c r="A43" s="62"/>
+      <c r="B43" s="58"/>
+      <c r="C43" s="76" t="s">
         <v>135</v>
       </c>
       <c r="D43" s="45" t="s">
         <v>30</v>
       </c>
-      <c r="E43" s="153">
+      <c r="E43" s="103">
         <v>1</v>
       </c>
-      <c r="F43" s="141">
+      <c r="F43" s="91">
         <v>35000</v>
       </c>
-      <c r="G43" s="129">
+      <c r="G43" s="79">
         <f t="shared" ref="G43" si="12">F43*E43</f>
         <v>35000</v>
       </c>
-      <c r="H43" s="141">
+      <c r="H43" s="91">
         <v>15000</v>
       </c>
-      <c r="I43" s="129">
+      <c r="I43" s="79">
         <f t="shared" ref="I43" si="13">H43*E43</f>
         <v>15000</v>
       </c>
@@ -6102,105 +6102,105 @@
       </c>
     </row>
     <row r="44" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="113">
+      <c r="A44" s="63">
         <v>6</v>
       </c>
-      <c r="B44" s="109"/>
-      <c r="C44" s="127" t="s">
+      <c r="B44" s="59"/>
+      <c r="C44" s="77" t="s">
         <v>136</v>
       </c>
-      <c r="D44" s="154"/>
-      <c r="E44" s="155"/>
-      <c r="F44" s="140"/>
-      <c r="G44" s="128"/>
-      <c r="H44" s="140"/>
-      <c r="I44" s="128"/>
-      <c r="J44" s="140"/>
+      <c r="D44" s="104"/>
+      <c r="E44" s="105"/>
+      <c r="F44" s="90"/>
+      <c r="G44" s="78"/>
+      <c r="H44" s="90"/>
+      <c r="I44" s="78"/>
+      <c r="J44" s="90"/>
     </row>
     <row r="45" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="112"/>
-      <c r="B45" s="108"/>
-      <c r="C45" s="119" t="s">
+      <c r="A45" s="62"/>
+      <c r="B45" s="58"/>
+      <c r="C45" s="69" t="s">
         <v>137</v>
       </c>
-      <c r="D45" s="156"/>
-      <c r="E45" s="157"/>
-      <c r="F45" s="139"/>
-      <c r="G45" s="121"/>
-      <c r="H45" s="139"/>
-      <c r="I45" s="121"/>
-      <c r="J45" s="139"/>
+      <c r="D45" s="106"/>
+      <c r="E45" s="107"/>
+      <c r="F45" s="89"/>
+      <c r="G45" s="71"/>
+      <c r="H45" s="89"/>
+      <c r="I45" s="71"/>
+      <c r="J45" s="89"/>
     </row>
     <row r="46" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="112"/>
-      <c r="B46" s="108"/>
-      <c r="C46" s="119" t="s">
+      <c r="A46" s="62"/>
+      <c r="B46" s="58"/>
+      <c r="C46" s="69" t="s">
         <v>138</v>
       </c>
-      <c r="D46" s="161" t="s">
+      <c r="D46" s="111" t="s">
         <v>30</v>
       </c>
-      <c r="E46" s="152">
+      <c r="E46" s="102">
         <v>1</v>
       </c>
-      <c r="F46" s="139">
+      <c r="F46" s="89">
         <v>10000</v>
       </c>
-      <c r="G46" s="122">
+      <c r="G46" s="72">
         <f t="shared" ref="G46" si="15">F46*E46</f>
         <v>10000</v>
       </c>
-      <c r="H46" s="139">
+      <c r="H46" s="89">
         <v>10000</v>
       </c>
-      <c r="I46" s="122">
+      <c r="I46" s="72">
         <f t="shared" ref="I46" si="16">H46*E46</f>
         <v>10000</v>
       </c>
-      <c r="J46" s="137">
+      <c r="J46" s="87">
         <f t="shared" ref="J46" si="17">I46+G46</f>
         <v>20000</v>
       </c>
     </row>
     <row r="47" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="113">
+      <c r="A47" s="63">
         <v>7</v>
       </c>
-      <c r="B47" s="109"/>
-      <c r="C47" s="127" t="s">
+      <c r="B47" s="59"/>
+      <c r="C47" s="77" t="s">
         <v>139</v>
       </c>
-      <c r="D47" s="154"/>
-      <c r="E47" s="155"/>
-      <c r="F47" s="140"/>
-      <c r="G47" s="128"/>
-      <c r="H47" s="140"/>
-      <c r="I47" s="128"/>
-      <c r="J47" s="140"/>
+      <c r="D47" s="104"/>
+      <c r="E47" s="105"/>
+      <c r="F47" s="90"/>
+      <c r="G47" s="78"/>
+      <c r="H47" s="90"/>
+      <c r="I47" s="78"/>
+      <c r="J47" s="90"/>
     </row>
     <row r="48" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="112"/>
-      <c r="B48" s="108"/>
-      <c r="C48" s="126" t="s">
+      <c r="A48" s="62"/>
+      <c r="B48" s="58"/>
+      <c r="C48" s="76" t="s">
         <v>140</v>
       </c>
       <c r="D48" s="45" t="s">
         <v>30</v>
       </c>
-      <c r="E48" s="153">
+      <c r="E48" s="103">
         <v>1</v>
       </c>
-      <c r="F48" s="141">
+      <c r="F48" s="91">
         <v>40000</v>
       </c>
-      <c r="G48" s="129">
+      <c r="G48" s="79">
         <f t="shared" ref="G48:G49" si="18">F48*E48</f>
         <v>40000</v>
       </c>
-      <c r="H48" s="141">
+      <c r="H48" s="91">
         <v>30000</v>
       </c>
-      <c r="I48" s="129">
+      <c r="I48" s="79">
         <f t="shared" ref="I48:I49" si="19">H48*E48</f>
         <v>30000</v>
       </c>
@@ -6210,77 +6210,77 @@
       </c>
     </row>
     <row r="49" spans="1:10" ht="19.350000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="113">
+      <c r="A49" s="63">
         <v>8</v>
       </c>
-      <c r="B49" s="114"/>
-      <c r="C49" s="127" t="s">
+      <c r="B49" s="64"/>
+      <c r="C49" s="77" t="s">
         <v>141</v>
       </c>
-      <c r="D49" s="160" t="s">
+      <c r="D49" s="110" t="s">
         <v>30</v>
       </c>
-      <c r="E49" s="151">
+      <c r="E49" s="101">
         <v>1</v>
       </c>
-      <c r="F49" s="120">
+      <c r="F49" s="70">
         <v>0</v>
       </c>
-      <c r="G49" s="143">
+      <c r="G49" s="93">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="H49" s="120">
+      <c r="H49" s="70">
         <v>30000</v>
       </c>
-      <c r="I49" s="143">
+      <c r="I49" s="93">
         <f t="shared" si="19"/>
         <v>30000</v>
       </c>
-      <c r="J49" s="120">
+      <c r="J49" s="70">
         <f t="shared" si="20"/>
         <v>30000</v>
       </c>
     </row>
     <row r="50" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="113">
+      <c r="A50" s="63">
         <v>9</v>
       </c>
-      <c r="B50" s="109"/>
-      <c r="C50" s="127" t="s">
+      <c r="B50" s="59"/>
+      <c r="C50" s="77" t="s">
         <v>142</v>
       </c>
-      <c r="D50" s="154"/>
-      <c r="E50" s="155"/>
-      <c r="F50" s="140"/>
-      <c r="G50" s="128"/>
-      <c r="H50" s="140"/>
-      <c r="I50" s="128"/>
-      <c r="J50" s="140"/>
+      <c r="D50" s="104"/>
+      <c r="E50" s="105"/>
+      <c r="F50" s="90"/>
+      <c r="G50" s="78"/>
+      <c r="H50" s="90"/>
+      <c r="I50" s="78"/>
+      <c r="J50" s="90"/>
     </row>
     <row r="51" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="117"/>
-      <c r="B51" s="130"/>
-      <c r="C51" s="126" t="s">
+      <c r="A51" s="67"/>
+      <c r="B51" s="80"/>
+      <c r="C51" s="76" t="s">
         <v>143</v>
       </c>
       <c r="D51" s="45" t="s">
         <v>30</v>
       </c>
-      <c r="E51" s="153">
+      <c r="E51" s="103">
         <v>1</v>
       </c>
-      <c r="F51" s="141">
+      <c r="F51" s="91">
         <v>0</v>
       </c>
-      <c r="G51" s="129">
+      <c r="G51" s="79">
         <f t="shared" ref="G51" si="21">F51*E51</f>
         <v>0</v>
       </c>
-      <c r="H51" s="141">
+      <c r="H51" s="91">
         <v>30000</v>
       </c>
-      <c r="I51" s="129">
+      <c r="I51" s="79">
         <f t="shared" ref="I51" si="22">H51*E51</f>
         <v>30000</v>
       </c>
@@ -6290,72 +6290,72 @@
       </c>
     </row>
     <row r="52" spans="1:10" ht="19.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="104"/>
-      <c r="B52" s="104"/>
-      <c r="C52" s="131" t="s">
+      <c r="A52" s="56"/>
+      <c r="B52" s="56"/>
+      <c r="C52" s="81" t="s">
         <v>144</v>
       </c>
-      <c r="D52" s="162"/>
-      <c r="E52" s="162"/>
+      <c r="D52" s="112"/>
+      <c r="E52" s="112"/>
       <c r="F52" s="14"/>
-      <c r="G52" s="132">
+      <c r="G52" s="82">
         <f>SUM(G9:G51)</f>
-        <v>3676680</v>
+        <v>3496680</v>
       </c>
       <c r="H52" s="14"/>
-      <c r="I52" s="132">
+      <c r="I52" s="82">
         <f>SUM(I9:I51)</f>
         <v>444500</v>
       </c>
-      <c r="J52" s="132">
+      <c r="J52" s="82">
         <f>SUM(J9:J51)</f>
-        <v>4121180</v>
+        <v>3941180</v>
       </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A53" s="55" t="s">
+      <c r="A53" s="176" t="s">
         <v>74</v>
       </c>
-      <c r="B53" s="55"/>
-      <c r="C53" s="55"/>
-      <c r="D53" s="55"/>
-      <c r="E53" s="55"/>
-      <c r="F53" s="55"/>
-      <c r="G53" s="55"/>
-      <c r="H53" s="55"/>
-      <c r="I53" s="55"/>
-      <c r="J53" s="55"/>
+      <c r="B53" s="176"/>
+      <c r="C53" s="176"/>
+      <c r="D53" s="176"/>
+      <c r="E53" s="176"/>
+      <c r="F53" s="176"/>
+      <c r="G53" s="176"/>
+      <c r="H53" s="176"/>
+      <c r="I53" s="176"/>
+      <c r="J53" s="176"/>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A54" s="26" t="s">
         <v>75</v>
       </c>
-      <c r="B54" s="56" t="s">
+      <c r="B54" s="177" t="s">
         <v>78</v>
       </c>
-      <c r="C54" s="56"/>
-      <c r="D54" s="56"/>
-      <c r="E54" s="56"/>
-      <c r="F54" s="56"/>
-      <c r="G54" s="56"/>
-      <c r="H54" s="56"/>
-      <c r="I54" s="56"/>
-      <c r="J54" s="56"/>
+      <c r="C54" s="177"/>
+      <c r="D54" s="177"/>
+      <c r="E54" s="177"/>
+      <c r="F54" s="177"/>
+      <c r="G54" s="177"/>
+      <c r="H54" s="177"/>
+      <c r="I54" s="177"/>
+      <c r="J54" s="177"/>
     </row>
     <row r="55" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="26" t="s">
         <v>77</v>
       </c>
-      <c r="B55" s="56" t="s">
+      <c r="B55" s="177" t="s">
         <v>80</v>
       </c>
-      <c r="C55" s="56"/>
-      <c r="D55" s="56"/>
-      <c r="E55" s="56"/>
-      <c r="F55" s="56"/>
-      <c r="G55" s="56"/>
-      <c r="H55" s="56"/>
-      <c r="I55" s="56"/>
+      <c r="C55" s="177"/>
+      <c r="D55" s="177"/>
+      <c r="E55" s="177"/>
+      <c r="F55" s="177"/>
+      <c r="G55" s="177"/>
+      <c r="H55" s="177"/>
+      <c r="I55" s="177"/>
       <c r="J55" s="3"/>
     </row>
   </sheetData>
